--- a/AutomatedTest/TestData/Temenos/Disbursement.xlsx
+++ b/AutomatedTest/TestData/Temenos/Disbursement.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D79CA-23FC-4E9A-BE1F-256A2166FED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A850EF-1ECD-4CCB-B2C6-84B256EF5FD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="InputTestData" sheetId="2" r:id="rId2"/>
     <sheet name="ValidationTestData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>TestScriptName</t>
   </si>
@@ -59,45 +59,21 @@
     <t>CreateNewApplication</t>
   </si>
   <si>
-    <t>solveFor</t>
-  </si>
-  <si>
-    <t>paymentFrequency</t>
-  </si>
-  <si>
     <t>Payment</t>
   </si>
   <si>
     <t>EnterFieldValuesInLoanTermPanel</t>
   </si>
   <si>
-    <t>requestedAmount</t>
-  </si>
-  <si>
     <t>25000</t>
   </si>
   <si>
-    <t>term</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
     <t>AddStipulations</t>
   </si>
   <si>
-    <t>stipulation</t>
-  </si>
-  <si>
-    <t>requiredFor</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>2 years tax returns</t>
   </si>
   <si>
@@ -116,18 +92,9 @@
     <t>AccountNumber</t>
   </si>
   <si>
-    <t>Applicationtype</t>
-  </si>
-  <si>
     <t>ApproveApplyingFor</t>
   </si>
   <si>
-    <t>RejectApplyFor</t>
-  </si>
-  <si>
-    <t>ReviewApplyFor</t>
-  </si>
-  <si>
     <t>Auto: Automation Auto Approve</t>
   </si>
   <si>
@@ -138,6 +105,54 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>ApplicationType</t>
+  </si>
+  <si>
+    <t>Stipulation0</t>
+  </si>
+  <si>
+    <t>RequiredFor0</t>
+  </si>
+  <si>
+    <t>Description0</t>
+  </si>
+  <si>
+    <t>Comments0</t>
+  </si>
+  <si>
+    <t>SolveFor</t>
+  </si>
+  <si>
+    <t>PaymentFrequency</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Stipulation1</t>
+  </si>
+  <si>
+    <t>RequiredFor1</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Comments1</t>
+  </si>
+  <si>
+    <t>Pest Inspection</t>
+  </si>
+  <si>
+    <t>RejectApplyingFor</t>
+  </si>
+  <si>
+    <t>ReviewApplyingFor</t>
   </si>
 </sst>
 </file>
@@ -336,7 +351,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -877,10 +952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,54 +968,66 @@
     <col min="16" max="16384" width="31.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>23</v>
+      <c r="P1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
         <v>10</v>
@@ -951,33 +1038,39 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>8</v>
@@ -986,52 +1079,79 @@
         <v>9</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>27</v>
+      <c r="S3" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4111"/>
+  <conditionalFormatting sqref="A1:O1 T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="14" priority="4117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="7" priority="4112"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4113"/>
+  <conditionalFormatting sqref="T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="13" priority="4118"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4116"/>
+  <conditionalFormatting sqref="A1:O1 T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="11" priority="4122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4119"/>
+  <conditionalFormatting sqref="A1:O1 T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="10" priority="4125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4122"/>
+  <conditionalFormatting sqref="T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="9" priority="4128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="2" priority="4133"/>
+  <conditionalFormatting sqref="A1:O1 T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="8" priority="4139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="1" priority="4141"/>
+  <conditionalFormatting sqref="A1:O1 T1:XFD1">
+    <cfRule type="duplicateValues" dxfId="7" priority="4147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:S1">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:S1">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:S1">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:S1">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:S1">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1039,7 +1159,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1976" operator="containsText" id="{F275B963-47B4-40E9-8324-D35C89977498}">
+          <x14:cfRule type="containsText" priority="1982" operator="containsText" id="{F275B963-47B4-40E9-8324-D35C89977498}">
             <xm:f>NOT(ISERROR(SEARCH("=",A1)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
@@ -1053,7 +1173,24 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I2:O2 A2:G2 A3:O1048576 A1:O1 P1:XFD1048576</xm:sqref>
+          <xm:sqref>I2:O2 A2:G2 A3:O1048576 A1:O1 P4:XFD1048576 T1:XFD3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D25D7BF9-5AEC-4B4B-8706-4BE2E8D69026}">
+            <xm:f>NOT(ISERROR(SEARCH("=",P1)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P1:S3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AutomatedTest/TestData/Temenos/Disbursement.xlsx
+++ b/AutomatedTest/TestData/Temenos/Disbursement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A850EF-1ECD-4CCB-B2C6-84B256EF5FD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2913E-544E-4E48-B416-D472B50913ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,12 @@
     <sheet name="InputTestData" sheetId="2" r:id="rId2"/>
     <sheet name="ValidationTestData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>TestScriptName</t>
   </si>
@@ -153,6 +154,18 @@
   </si>
   <si>
     <t>ReviewApplyingFor</t>
+  </si>
+  <si>
+    <t>RemoveDecision</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -351,7 +364,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -952,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +1121,7 @@
     <col min="16" max="16384" width="31.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1179,14 @@
       <c r="S1" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="T1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
         <v>10</v>
@@ -1055,8 +1214,10 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
@@ -1114,44 +1275,80 @@
       <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="T3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:O1 T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="14" priority="4117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="13" priority="4118"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:O1 T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="11" priority="4122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:O1 T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="10" priority="4125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="9" priority="4128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:O1 T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:O1 T1:XFD1">
-    <cfRule type="duplicateValues" dxfId="7" priority="4147"/>
+  <conditionalFormatting sqref="A1:O1 V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="28" priority="4131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="27" priority="4132"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:O1 V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="25" priority="4136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:O1 V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="24" priority="4139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="23" priority="4142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:O1 V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="22" priority="4153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:O1 V1:XFD1">
+    <cfRule type="duplicateValues" dxfId="21" priority="4161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:S1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:S1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:S1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:S1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:S1">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1159,7 +1356,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1982" operator="containsText" id="{F275B963-47B4-40E9-8324-D35C89977498}">
+          <x14:cfRule type="containsText" priority="1996" operator="containsText" id="{F275B963-47B4-40E9-8324-D35C89977498}">
             <xm:f>NOT(ISERROR(SEARCH("=",A1)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
@@ -1173,10 +1370,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I2:O2 A2:G2 A3:O1048576 A1:O1 P4:XFD1048576 T1:XFD3</xm:sqref>
+          <xm:sqref>I2:O2 A2:G2 A3:O1048576 A1:O1 P4:XFD1048576 T3:XFD3 V1:XFD2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D25D7BF9-5AEC-4B4B-8706-4BE2E8D69026}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{D25D7BF9-5AEC-4B4B-8706-4BE2E8D69026}">
             <xm:f>NOT(ISERROR(SEARCH("=",P1)))</xm:f>
             <xm:f>"="</xm:f>
             <x14:dxf>
@@ -1192,6 +1389,74 @@
           </x14:cfRule>
           <xm:sqref>P1:S3</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{6D020DE7-CB4D-4385-8B32-6A251F758B53}">
+            <xm:f>NOT(ISERROR(SEARCH("=",T1)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{8DA15D6E-B0A4-4438-B947-65AFB955B17F}">
+            <xm:f>NOT(ISERROR(SEARCH("=",T2)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FEB85BCF-51BF-43F5-8D6A-3CA503109C10}">
+            <xm:f>NOT(ISERROR(SEARCH("=",U1)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{50D2E8BB-07D6-4EF3-98B5-7C090EF1316A}">
+            <xm:f>NOT(ISERROR(SEARCH("=",U2)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U2</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
